--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0897C2F-56D4-4BB7-9835-3C8572563386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A82802-5754-4638-AD6F-D022DD27E0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="432" windowWidth="18900" windowHeight="10896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="575">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1744,6 +1744,9 @@
   </si>
   <si>
     <t>Nufus</t>
+  </si>
+  <si>
+    <t>Isim</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2182,7 +2185,7 @@
     <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2198,8 +2201,11 @@
       <c r="E1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2212,11 +2218,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="n">
-        <v>1500000.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2272,7 +2278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2327,11 +2333,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="n">
-        <v>250000.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2345,7 +2351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2400,11 +2406,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="n">
-        <v>54000.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4878,7 +4884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -5002,12 +5008,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E46F7E-EBF0-44F2-AA2D-0668D88E0AD1}">
-  <dimension ref="A1"/>
+  <dimension ref="E1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="F1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="E2" t="n">
+        <v>1500000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="n">
+        <v>250000.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="n">
+        <v>54000.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>